--- a/docs/00b-basics/pie-chart-overview.xlsx
+++ b/docs/00b-basics/pie-chart-overview.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/developer/github_isaqb/advanced-template/docs/01-basics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/websec/curriculum-websec/docs/00b-basics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182FF1B4-E76D-1644-8110-6BB9862D395E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35945AC-A241-AC49-8EF1-17F59FDACCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="24560" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="24560" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DE-Grafik" sheetId="3" r:id="rId1"/>
     <sheet name="EN-Graphic" sheetId="1" r:id="rId2"/>
-    <sheet name="Tabelle1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,58 +37,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Vortrag</t>
+    <t>Analyse</t>
   </si>
   <si>
-    <t>Übung</t>
+    <t>Sicherer Design-/Entwicklungsprozess</t>
   </si>
   <si>
-    <t>Gesamt</t>
+    <t>Kryptographie</t>
   </si>
   <si>
-    <t>Thema mit Einleitung</t>
+    <t>Web: Technische Grundlagen</t>
   </si>
   <si>
-    <t>Thema über xz</t>
+    <t>Web: Mögliche Angriffsvektoren</t>
   </si>
   <si>
-    <t>Thema mit viel Theorie</t>
+    <t>Web: Security und Infrastruktur</t>
   </si>
   <si>
-    <t>Thema mit xy und Beispiel</t>
+    <t>Analysis</t>
   </si>
   <si>
-    <t>Thema mit abc und d</t>
+    <t>Secure Development and Design</t>
   </si>
   <si>
-    <t>Thema mit Abschlussbeispiel</t>
+    <t>Cryptography</t>
   </si>
   <si>
-    <t>Introduction</t>
+    <t>Web: Technical Foundations</t>
   </si>
   <si>
-    <t>xz</t>
+    <t>Web: Attack Vectors</t>
   </si>
   <si>
-    <t>Lots of theory</t>
-  </si>
-  <si>
-    <t>xy and example</t>
-  </si>
-  <si>
-    <t>abc and d</t>
-  </si>
-  <si>
-    <t>final example</t>
+    <t>Web: Security and Infrastructure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,22 +371,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Thema mit Einleitung</c:v>
+                  <c:v>Analyse</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Thema über xz</c:v>
+                  <c:v>Sicherer Design-/Entwicklungsprozess</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Thema mit viel Theorie</c:v>
+                  <c:v>Kryptographie</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Thema mit xy und Beispiel</c:v>
+                  <c:v>Web: Technische Grundlagen</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Thema mit abc und d</c:v>
+                  <c:v>Web: Mögliche Angriffsvektoren</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Thema mit Abschlussbeispiel</c:v>
+                  <c:v>Web: Security und Infrastruktur</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -409,19 +401,19 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -463,7 +455,7 @@
           <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -705,22 +697,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Introduction</c:v>
+                  <c:v>Analysis</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>xz</c:v>
+                  <c:v>Secure Development and Design</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Lots of theory</c:v>
+                  <c:v>Cryptography</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>xy and example</c:v>
+                  <c:v>Web: Technical Foundations</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>abc and d</c:v>
+                  <c:v>Web: Attack Vectors</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>final example</c:v>
+                  <c:v>Web: Security and Infrastructure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -735,19 +727,19 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,7 +781,7 @@
           <a:ea typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1209,10 +1201,10 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
@@ -1220,58 +1212,58 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>150</v>
+      <c r="B5" s="1">
+        <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>120</v>
+      <c r="B6" s="1">
+        <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="B7" s="1">
         <f>SUM(B1:B6)</f>
-        <v>960</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -1285,11 +1277,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
@@ -1297,200 +1289,62 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
-        <v>150</v>
+      <c r="B5" s="1">
+        <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
-        <v>120</v>
+      <c r="B6" s="1">
+        <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="B7" s="1">
         <f>SUM(B1:B6)</f>
-        <v>960</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="249" zoomScaleNormal="249" zoomScalePageLayoutView="249" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <f>B2+C2</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>120</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D8" si="0">B3+C3</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>300</v>
-      </c>
-      <c r="C4" s="1">
-        <v>90</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>150</v>
-      </c>
-      <c r="C5" s="1">
-        <v>90</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>60</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" s="1">
-        <f>SUM(D2:D8)</f>
-        <v>960</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/docs/00b-basics/pie-chart-overview.xlsx
+++ b/docs/00b-basics/pie-chart-overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/websec/curriculum-websec/docs/00b-basics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35945AC-A241-AC49-8EF1-17F59FDACCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94970E8-42B6-A043-A16E-DE2F826354DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="24560" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="24560" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DE-Grafik" sheetId="3" r:id="rId1"/>
@@ -398,22 +398,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>360</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>360</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,22 +724,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>360</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>360</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="B6" sqref="B1:B6"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1225,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1233,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1241,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>360</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1249,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>360</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1257,13 +1257,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="1">
         <f>SUM(B1:B6)</f>
-        <v>1440</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
@@ -1294,7 +1294,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>360</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>360</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1334,13 +1334,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="1">
         <f>SUM(B1:B6)</f>
-        <v>1440</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>

--- a/docs/00b-basics/pie-chart-overview.xlsx
+++ b/docs/00b-basics/pie-chart-overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/websec/curriculum-websec/docs/00b-basics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/developer/github_isaqb/curriculum-websec/docs/00b-basics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94970E8-42B6-A043-A16E-DE2F826354DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D40EEC9-0EEC-5043-A12C-D7F4A74DEC30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="24560" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="24560" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DE-Grafik" sheetId="3" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Analyse</t>
   </si>
   <si>
-    <t>Sicherer Design-/Entwicklungsprozess</t>
-  </si>
-  <si>
     <t>Kryptographie</t>
   </si>
   <si>
@@ -74,12 +71,15 @@
   <si>
     <t>Web: Security and Infrastructure</t>
   </si>
+  <si>
+    <t>Sicherer Design und Entwicklungsprozess</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,8 +260,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0409101070568101E-2"/>
-                  <c:y val="6.7844132435252794E-2"/>
+                  <c:x val="6.9715738246117626E-3"/>
+                  <c:y val="6.4999487060714539E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -281,8 +281,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.7476920274555599E-2"/>
-                  <c:y val="1.8114742434304099E-2"/>
+                  <c:x val="-0.16262243385733061"/>
+                  <c:y val="-1.0430391614758389E-16"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -374,7 +374,7 @@
                   <c:v>Analyse</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sicherer Design-/Entwicklungsprozess</c:v>
+                  <c:v>Sicherer Design und Entwicklungsprozess</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Kryptographie</c:v>
@@ -593,8 +593,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0409101070568101E-2"/>
-                  <c:y val="6.7844132435252794E-2"/>
+                  <c:x val="3.4372326478203992E-2"/>
+                  <c:y val="5.6465444347754995E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -614,8 +614,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.7476920274555599E-2"/>
-                  <c:y val="1.8114742434304099E-2"/>
+                  <c:x val="-0.18566394444911036"/>
+                  <c:y val="1.0430393951072285E-16"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1200,19 +1200,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A3" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="42" style="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,47 +1220,47 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <f>SUM(B1:B6)</f>
         <v>1080</v>
@@ -1277,11 +1277,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
@@ -1289,55 +1289,55 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <f>SUM(B1:B6)</f>
         <v>1080</v>
